--- a/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,49 +22,73 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>202801</t>
+  </si>
+  <si>
+    <t>005228</t>
+  </si>
+  <si>
     <t>160125</t>
   </si>
   <si>
-    <t>005228</t>
-  </si>
-  <si>
-    <t>202801</t>
+    <t>南方全球精选配置(QDII-FOF)</t>
+  </si>
+  <si>
+    <t>汇添富港股通专注成长混合</t>
   </si>
   <si>
     <t>南方香港优选股票QDII-LOF</t>
   </si>
   <si>
-    <t>汇添富港股通专注成长混合</t>
-  </si>
-  <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
+    <t>29.26</t>
+  </si>
+  <si>
+    <t>5.77</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>31.37</t>
+  </si>
+  <si>
+    <t>86.36</t>
   </si>
   <si>
     <t>92.88</t>
   </si>
   <si>
-    <t>86.36</t>
-  </si>
-  <si>
-    <t>31.37</t>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>5.19</t>
   </si>
   <si>
     <t>7.55</t>
   </si>
   <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>6.90</t>
+    <t>2.0189</t>
+  </si>
+  <si>
+    <t>0.2995</t>
+  </si>
+  <si>
+    <t>0.2257</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,64 +468,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>202801</t>
-  </si>
-  <si>
-    <t>005228</t>
-  </si>
-  <si>
-    <t>160125</t>
-  </si>
-  <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
-  </si>
-  <si>
-    <t>汇添富港股通专注成长混合</t>
-  </si>
-  <si>
-    <t>南方香港优选股票QDII-LOF</t>
-  </si>
-  <si>
-    <t>29.26</t>
-  </si>
-  <si>
-    <t>5.77</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>31.37</t>
-  </si>
-  <si>
-    <t>86.36</t>
-  </si>
-  <si>
-    <t>92.88</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>7.55</t>
-  </si>
-  <si>
-    <t>2.0189</t>
-  </si>
-  <si>
-    <t>0.2995</t>
-  </si>
-  <si>
-    <t>0.2257</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4687</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8407</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7230</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6425</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
@@ -2138,12 +2138,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗控股有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,167 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202801</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0189</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005228</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富港股通专注成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2995</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2257</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2122,64 +2020,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.04</v>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.54</v>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>